--- a/medicine/Hématologie/Hématocrite/Hématocrite.xlsx
+++ b/medicine/Hématologie/Hématocrite/Hématocrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matocrite</t>
+          <t>Hématocrite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, l'hématocrite, Hte ou HCT (du grec ancien αἵματος / haimatos de αἷμα / haima, « sang » et κριτής / kritês « juge ») est le volume occupé par les globules rouges circulant dans le sang exprimé en pourcentage par rapport au volume total du sang. C'est aussi le nom de l'examen permettant de déterminer ce paramètre, qui est souvent abrégé en Ht, réalisé lors d'un hémogramme.
-En pratique, ce pourcentage correspond au rapport entre le volume qu'occupent les cellules circulantes du sang après centrifugation d'un prélèvement sanguin veineux et le volume centrifugé. C'est une approximation[1] du volume qu'occupent les érythrocytes (globules rouges).
+En pratique, ce pourcentage correspond au rapport entre le volume qu'occupent les cellules circulantes du sang après centrifugation d'un prélèvement sanguin veineux et le volume centrifugé. C'est une approximation du volume qu'occupent les érythrocytes (globules rouges).
 Cette mesure est indispensable pour calculer le volume globulaire moyen (VGM) et la concentration corpusculaire moyenne en hémoglobine (CCMH).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9matocrite</t>
+          <t>Hématocrite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Valeurs usuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa valeur est variable selon l'espèce, l'âge et le sexe.
 Dans l'espèce humaine, il est plus élevé chez l'homme que chez la femme et il est plus élevé chez le nourrisson que chez une personne âgée.
 Chez l'homme de plus de 40 ans, la valeur normale est de 41 à 52 %.
-Chez la femme de plus de 40 ans, la valeur normale est de 40 à 52 %[2].
+Chez la femme de plus de 40 ans, la valeur normale est de 40 à 52 %.
 Chez la femme enceinte et l'enfant, cette valeur diminue considérablement (36 à 47 % chez l'enfant et 44 à 62 % chez le nouveau-né).
 Pour les espèces animales les plus couramment rencontrées en médecine vétérinaire, il est de 37 à 55 % chez le chien, de 24 à 45 % chez le chat, de 32 à 53 % chez le cheval et de 24 à 46 % chez la vache.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9matocrite</t>
+          <t>Hématocrite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Variations pathologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreuses affections peuvent être responsables d'anomalies de l'hématocrite[3],[4], certaines seront responsables d'une baisse de ce dernier:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De nombreuses affections peuvent être responsables d'anomalies de l'hématocrite certaines seront responsables d'une baisse de ce dernier:
 Anémie
 Hémorragie
 Certaines hémopathies malignes comme les leucémies.
